--- a/6. Formatos/Formato - Hoja de Retardos.xlsx
+++ b/6. Formatos/Formato - Hoja de Retardos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\6. Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6297D0BB-6325-45DD-9020-98F6F56AC83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7A3F93-FE68-431B-BD27-AB81CE0A6537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E2DCE6F9-4E67-43CE-99BD-155BF2AA81C3}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Elvis Molina</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Marinela Olaya</t>
   </si>
   <si>
-    <t>Nataly Caro</t>
-  </si>
-  <si>
     <t>Olga Arango</t>
   </si>
   <si>
@@ -82,10 +79,19 @@
     <t>Retardos - Marcar con ❎ o resaltar con color si hubo tardanza</t>
   </si>
   <si>
-    <t>Enero</t>
+    <t>Marzo</t>
   </si>
   <si>
-    <t>Febrero</t>
+    <t>Edy Uribe</t>
+  </si>
+  <si>
+    <t>Johana Matute</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Sandra/Carlos</t>
   </si>
 </sst>
 </file>
@@ -276,19 +282,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -379,6 +372,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -394,9 +400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,6 +412,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,37 +448,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -770,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B7D470-C1A4-4E8B-A99C-49F2F0D1D64D}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -783,1420 +789,1424 @@
   <sheetData>
     <row r="1" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="11"/>
+      <c r="B2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="19"/>
     </row>
     <row r="3" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
-      <c r="B3" s="6" cm="1">
+      <c r="B3" s="5" cm="1">
         <f t="array" ref="B3:AF3">+_xlfn.SEQUENCE(1,31)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>6</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>7</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>8</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>9</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>10</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>11</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>12</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>13</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>14</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>15</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <v>16</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>17</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>18</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>19</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <v>20</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>21</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>22</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <v>23</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>24</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="6">
         <v>25</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="6">
         <v>26</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="6">
         <v>27</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="6">
         <v>28</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD3" s="6">
         <v>29</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3" s="6">
         <v>30</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>+B3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="14">
         <f t="shared" ref="C4:C13" si="0">+C3</f>
         <v>2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="14">
         <f t="shared" ref="D4:D13" si="1">+D3</f>
         <v>3</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <f t="shared" ref="E4:E13" si="2">+E3</f>
         <v>4</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="14">
         <f t="shared" ref="F4:F13" si="3">+F3</f>
         <v>5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <f t="shared" ref="G4:G13" si="4">+G3</f>
         <v>6</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="14">
         <f t="shared" ref="H4:H13" si="5">+H3</f>
         <v>7</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="14">
         <f t="shared" ref="I4:I13" si="6">+I3</f>
         <v>8</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="14">
         <f t="shared" ref="J4:J13" si="7">+J3</f>
         <v>9</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="14">
         <f t="shared" ref="K4:K13" si="8">+K3</f>
         <v>10</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="14">
         <f t="shared" ref="L4:L13" si="9">+L3</f>
         <v>11</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="14">
         <f t="shared" ref="M4:M13" si="10">+M3</f>
         <v>12</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="14">
         <f t="shared" ref="N4:N13" si="11">+N3</f>
         <v>13</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="14">
         <f t="shared" ref="O4:O13" si="12">+O3</f>
         <v>14</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="14">
         <f t="shared" ref="P4:P13" si="13">+P3</f>
         <v>15</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="14">
         <f t="shared" ref="Q4:Q13" si="14">+Q3</f>
         <v>16</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="14">
         <f t="shared" ref="R4:R13" si="15">+R3</f>
         <v>17</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="14">
         <f t="shared" ref="S4:S13" si="16">+S3</f>
         <v>18</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="14">
         <f t="shared" ref="T4:T13" si="17">+T3</f>
         <v>19</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="14">
         <f t="shared" ref="U4:U13" si="18">+U3</f>
         <v>20</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="14">
         <f t="shared" ref="V4:V13" si="19">+V3</f>
         <v>21</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="14">
         <f t="shared" ref="W4:W13" si="20">+W3</f>
         <v>22</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="14">
         <f t="shared" ref="X4:X13" si="21">+X3</f>
         <v>23</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="14">
         <f t="shared" ref="Y4:Y13" si="22">+Y3</f>
         <v>24</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="14">
         <f t="shared" ref="Z4:Z13" si="23">+Z3</f>
         <v>25</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="14">
         <f t="shared" ref="AA4:AA13" si="24">+AA3</f>
         <v>26</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="14">
         <f t="shared" ref="AB4:AB13" si="25">+AB3</f>
         <v>27</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="14">
         <f t="shared" ref="AC4:AC13" si="26">+AC3</f>
         <v>28</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="14">
         <f t="shared" ref="AD4:AD13" si="27">+AD3</f>
         <v>29</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="14">
         <f t="shared" ref="AE4:AE13" si="28">+AE3</f>
         <v>30</v>
       </c>
-      <c r="AF4" s="20">
+      <c r="AF4" s="15">
         <f t="shared" ref="AF4:AF13" si="29">+AF3</f>
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <f t="shared" ref="B5:B10" si="30">+B4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="8">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="8">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="8">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="8">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="8">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="8">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="8">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="8">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="8">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="8">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="8">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="8">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="8">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="8">
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="8">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AD5" s="8">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="8">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AF5" s="9">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="8">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="8">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="8">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="8">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="8">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="8">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="8">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="8">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="8">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="8">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="8">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="8">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="8">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="8">
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="8">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AD6" s="8">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="8">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AF6" s="9">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="8">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="8">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="8">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="8">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="8">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="8">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="8">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="8">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="8">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="8">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="8">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="8">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="8">
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AC7" s="8">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AD7" s="8">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="8">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="9">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="8">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="8">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="8">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="8">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="8">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="8">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="8">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="8">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="8">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="8">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="8">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="8">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="8">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8" s="8">
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8" s="8">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AD8" s="8">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="8">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AF8" s="9">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="8">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="8">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="8">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="8">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="8">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="8">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="8">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="8">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="8">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="8">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="8">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="8">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="8">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="8">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="8">
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="AC9" s="12">
+      <c r="AC9" s="8">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AD9" s="8">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="8">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AF9" s="9">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="8">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="8">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="8">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="8">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="8">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="8">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="8">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="8">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="8">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="8">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="8">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10" s="8">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA10" s="8">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AB10" s="8">
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="AC10" s="12">
+      <c r="AC10" s="8">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="AD10" s="12">
+      <c r="AD10" s="8">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AE10" s="8">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AF10" s="9">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="16">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
         <f>+B10</f>
         <v>1</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="8">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="8">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="8">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="8">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="8">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="8">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="8">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="8">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="8">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="8">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="8">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="8">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="8">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB11" s="8">
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AC11" s="8">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AD11" s="8">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="8">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AF11" s="9">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="16">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12">
         <f t="shared" ref="B12" si="31">+B11</f>
         <v>1</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="8">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="8">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="8">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="8">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="8">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="8">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="8">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="8">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="8">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="8">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="8">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W12" s="8">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="8">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="8">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12" s="8">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA12" s="8">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AB12" s="8">
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AC12" s="8">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD12" s="8">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE12" s="8">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AF12" s="9">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <f t="shared" ref="B13" si="32">+B12</f>
         <v>1</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="10">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="10">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="10">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="10">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="10">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="10">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="10">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="10">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="10">
         <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="10">
         <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="10">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="10">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="10">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="10">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="10">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="10">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="10">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA13" s="10">
         <f t="shared" si="24"/>
         <v>26</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="10">
         <f t="shared" si="25"/>
         <v>27</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="10">
         <f t="shared" si="26"/>
         <v>28</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AD13" s="10">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="10">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="AF13" s="15">
+      <c r="AF13" s="11">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
@@ -2204,1419 +2214,1423 @@
     <row r="14" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="19"/>
     </row>
     <row r="16" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
-      <c r="B16" s="6" cm="1">
+      <c r="B16" s="5" cm="1">
         <f t="array" ref="B16:AF16">+_xlfn.SEQUENCE(1,31)</f>
         <v>1</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>6</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>7</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>8</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>9</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>10</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>12</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>13</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>14</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <v>15</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>16</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="6">
         <v>17</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <v>18</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="6">
         <v>19</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <v>20</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>21</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="6">
         <v>22</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="6">
         <v>23</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="6">
         <v>24</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="6">
         <v>25</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <v>26</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="6">
         <v>27</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="6">
         <v>28</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="6">
         <v>29</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AE16" s="6">
         <v>30</v>
       </c>
-      <c r="AF16" s="8">
+      <c r="AF16" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f>+B16</f>
         <v>1</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="14">
         <f t="shared" ref="C17:C26" si="33">+C16</f>
         <v>2</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="14">
         <f t="shared" ref="D17:D26" si="34">+D16</f>
         <v>3</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="14">
         <f t="shared" ref="E17:E26" si="35">+E16</f>
         <v>4</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="14">
         <f t="shared" ref="F17:F26" si="36">+F16</f>
         <v>5</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="14">
         <f t="shared" ref="G17:G26" si="37">+G16</f>
         <v>6</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="14">
         <f t="shared" ref="H17:H26" si="38">+H16</f>
         <v>7</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="14">
         <f t="shared" ref="I17:I26" si="39">+I16</f>
         <v>8</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="14">
         <f t="shared" ref="J17:J26" si="40">+J16</f>
         <v>9</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="14">
         <f t="shared" ref="K17:K26" si="41">+K16</f>
         <v>10</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="14">
         <f t="shared" ref="L17:L26" si="42">+L16</f>
         <v>11</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="14">
         <f t="shared" ref="M17:M26" si="43">+M16</f>
         <v>12</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="14">
         <f t="shared" ref="N17:N26" si="44">+N16</f>
         <v>13</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="14">
         <f t="shared" ref="O17:O26" si="45">+O16</f>
         <v>14</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="14">
         <f t="shared" ref="P17:P26" si="46">+P16</f>
         <v>15</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="14">
         <f t="shared" ref="Q17:Q26" si="47">+Q16</f>
         <v>16</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="14">
         <f t="shared" ref="R17:R26" si="48">+R16</f>
         <v>17</v>
       </c>
-      <c r="S17" s="19">
+      <c r="S17" s="14">
         <f t="shared" ref="S17:S26" si="49">+S16</f>
         <v>18</v>
       </c>
-      <c r="T17" s="19">
+      <c r="T17" s="14">
         <f t="shared" ref="T17:T26" si="50">+T16</f>
         <v>19</v>
       </c>
-      <c r="U17" s="19">
+      <c r="U17" s="14">
         <f t="shared" ref="U17:U26" si="51">+U16</f>
         <v>20</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V17" s="14">
         <f t="shared" ref="V17:V26" si="52">+V16</f>
         <v>21</v>
       </c>
-      <c r="W17" s="19">
+      <c r="W17" s="14">
         <f t="shared" ref="W17:W26" si="53">+W16</f>
         <v>22</v>
       </c>
-      <c r="X17" s="19">
+      <c r="X17" s="14">
         <f t="shared" ref="X17:X26" si="54">+X16</f>
         <v>23</v>
       </c>
-      <c r="Y17" s="19">
+      <c r="Y17" s="14">
         <f t="shared" ref="Y17:Y26" si="55">+Y16</f>
         <v>24</v>
       </c>
-      <c r="Z17" s="19">
+      <c r="Z17" s="14">
         <f t="shared" ref="Z17:Z26" si="56">+Z16</f>
         <v>25</v>
       </c>
-      <c r="AA17" s="19">
+      <c r="AA17" s="14">
         <f t="shared" ref="AA17:AA26" si="57">+AA16</f>
         <v>26</v>
       </c>
-      <c r="AB17" s="19">
+      <c r="AB17" s="14">
         <f t="shared" ref="AB17:AB26" si="58">+AB16</f>
         <v>27</v>
       </c>
-      <c r="AC17" s="19">
+      <c r="AC17" s="14">
         <f t="shared" ref="AC17:AC26" si="59">+AC16</f>
         <v>28</v>
       </c>
-      <c r="AD17" s="19">
+      <c r="AD17" s="14">
         <f t="shared" ref="AD17:AD26" si="60">+AD16</f>
         <v>29</v>
       </c>
-      <c r="AE17" s="19">
+      <c r="AE17" s="14">
         <f t="shared" ref="AE17:AE26" si="61">+AE16</f>
         <v>30</v>
       </c>
-      <c r="AF17" s="20">
+      <c r="AF17" s="15">
         <f t="shared" ref="AF17:AF26" si="62">+AF16</f>
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <f t="shared" ref="B18:B23" si="63">+B17</f>
         <v>1</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="8">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="8">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="8">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="8">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="8">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="8">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="8">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="8">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="8">
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="8">
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="8">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="8">
         <f t="shared" si="44"/>
         <v>13</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="8">
         <f t="shared" si="45"/>
         <v>14</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="8">
         <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="8">
         <f t="shared" si="47"/>
         <v>16</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="8">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="8">
         <f t="shared" si="49"/>
         <v>18</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="8">
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18" s="8">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="V18" s="12">
+      <c r="V18" s="8">
         <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="W18" s="12">
+      <c r="W18" s="8">
         <f t="shared" si="53"/>
         <v>22</v>
       </c>
-      <c r="X18" s="12">
+      <c r="X18" s="8">
         <f t="shared" si="54"/>
         <v>23</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Y18" s="8">
         <f t="shared" si="55"/>
         <v>24</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="Z18" s="8">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="AA18" s="8">
         <f t="shared" si="57"/>
         <v>26</v>
       </c>
-      <c r="AB18" s="12">
+      <c r="AB18" s="8">
         <f t="shared" si="58"/>
         <v>27</v>
       </c>
-      <c r="AC18" s="12">
+      <c r="AC18" s="8">
         <f t="shared" si="59"/>
         <v>28</v>
       </c>
-      <c r="AD18" s="12">
+      <c r="AD18" s="8">
         <f t="shared" si="60"/>
         <v>29</v>
       </c>
-      <c r="AE18" s="12">
+      <c r="AE18" s="8">
         <f t="shared" si="61"/>
         <v>30</v>
       </c>
-      <c r="AF18" s="13">
+      <c r="AF18" s="9">
         <f t="shared" si="62"/>
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="8">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="8">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="8">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="8">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="8">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="8">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="8">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="8">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="8">
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="8">
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="8">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="8">
         <f t="shared" si="44"/>
         <v>13</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="8">
         <f t="shared" si="45"/>
         <v>14</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="8">
         <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="8">
         <f t="shared" si="47"/>
         <v>16</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="8">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="8">
         <f t="shared" si="49"/>
         <v>18</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="8">
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19" s="8">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="8">
         <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="W19" s="12">
+      <c r="W19" s="8">
         <f t="shared" si="53"/>
         <v>22</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19" s="8">
         <f t="shared" si="54"/>
         <v>23</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Y19" s="8">
         <f t="shared" si="55"/>
         <v>24</v>
       </c>
-      <c r="Z19" s="12">
+      <c r="Z19" s="8">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA19" s="8">
         <f t="shared" si="57"/>
         <v>26</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AB19" s="8">
         <f t="shared" si="58"/>
         <v>27</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AC19" s="8">
         <f t="shared" si="59"/>
         <v>28</v>
       </c>
-      <c r="AD19" s="12">
+      <c r="AD19" s="8">
         <f t="shared" si="60"/>
         <v>29</v>
       </c>
-      <c r="AE19" s="12">
+      <c r="AE19" s="8">
         <f t="shared" si="61"/>
         <v>30</v>
       </c>
-      <c r="AF19" s="13">
+      <c r="AF19" s="9">
         <f t="shared" si="62"/>
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="8">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="8">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="8">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="8">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="8">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="8">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="8">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="8">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="8">
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="8">
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="8">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="8">
         <f t="shared" si="44"/>
         <v>13</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="8">
         <f t="shared" si="45"/>
         <v>14</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="8">
         <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="8">
         <f t="shared" si="47"/>
         <v>16</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="8">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="8">
         <f t="shared" si="49"/>
         <v>18</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="8">
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="8">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="8">
         <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="W20" s="12">
+      <c r="W20" s="8">
         <f t="shared" si="53"/>
         <v>22</v>
       </c>
-      <c r="X20" s="12">
+      <c r="X20" s="8">
         <f t="shared" si="54"/>
         <v>23</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Y20" s="8">
         <f t="shared" si="55"/>
         <v>24</v>
       </c>
-      <c r="Z20" s="12">
+      <c r="Z20" s="8">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
-      <c r="AA20" s="12">
+      <c r="AA20" s="8">
         <f t="shared" si="57"/>
         <v>26</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AB20" s="8">
         <f t="shared" si="58"/>
         <v>27</v>
       </c>
-      <c r="AC20" s="12">
+      <c r="AC20" s="8">
         <f t="shared" si="59"/>
         <v>28</v>
       </c>
-      <c r="AD20" s="12">
+      <c r="AD20" s="8">
         <f t="shared" si="60"/>
         <v>29</v>
       </c>
-      <c r="AE20" s="12">
+      <c r="AE20" s="8">
         <f t="shared" si="61"/>
         <v>30</v>
       </c>
-      <c r="AF20" s="13">
+      <c r="AF20" s="9">
         <f t="shared" si="62"/>
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="8">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="8">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="8">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="8">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="8">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="8">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="8">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="8">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="8">
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="8">
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="8">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="8">
         <f t="shared" si="44"/>
         <v>13</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="8">
         <f t="shared" si="45"/>
         <v>14</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="8">
         <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="8">
         <f t="shared" si="47"/>
         <v>16</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="8">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="8">
         <f t="shared" si="49"/>
         <v>18</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="8">
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="8">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="8">
         <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21" s="8">
         <f t="shared" si="53"/>
         <v>22</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21" s="8">
         <f t="shared" si="54"/>
         <v>23</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y21" s="8">
         <f t="shared" si="55"/>
         <v>24</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z21" s="8">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA21" s="8">
         <f t="shared" si="57"/>
         <v>26</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AB21" s="8">
         <f t="shared" si="58"/>
         <v>27</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AC21" s="8">
         <f t="shared" si="59"/>
         <v>28</v>
       </c>
-      <c r="AD21" s="12">
+      <c r="AD21" s="8">
         <f t="shared" si="60"/>
         <v>29</v>
       </c>
-      <c r="AE21" s="12">
+      <c r="AE21" s="8">
         <f t="shared" si="61"/>
         <v>30</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AF21" s="9">
         <f t="shared" si="62"/>
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="8">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="8">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="8">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="8">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="8">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="8">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="8">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="8">
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="8">
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="8">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="8">
         <f t="shared" si="44"/>
         <v>13</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="8">
         <f t="shared" si="45"/>
         <v>14</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="8">
         <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="8">
         <f t="shared" si="47"/>
         <v>16</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="8">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="8">
         <f t="shared" si="49"/>
         <v>18</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="8">
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="8">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="8">
         <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="W22" s="12">
+      <c r="W22" s="8">
         <f t="shared" si="53"/>
         <v>22</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22" s="8">
         <f t="shared" si="54"/>
         <v>23</v>
       </c>
-      <c r="Y22" s="12">
+      <c r="Y22" s="8">
         <f t="shared" si="55"/>
         <v>24</v>
       </c>
-      <c r="Z22" s="12">
+      <c r="Z22" s="8">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
-      <c r="AA22" s="12">
+      <c r="AA22" s="8">
         <f t="shared" si="57"/>
         <v>26</v>
       </c>
-      <c r="AB22" s="12">
+      <c r="AB22" s="8">
         <f t="shared" si="58"/>
         <v>27</v>
       </c>
-      <c r="AC22" s="12">
+      <c r="AC22" s="8">
         <f t="shared" si="59"/>
         <v>28</v>
       </c>
-      <c r="AD22" s="12">
+      <c r="AD22" s="8">
         <f t="shared" si="60"/>
         <v>29</v>
       </c>
-      <c r="AE22" s="12">
+      <c r="AE22" s="8">
         <f t="shared" si="61"/>
         <v>30</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="AF22" s="9">
         <f t="shared" si="62"/>
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="16">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="12">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="8">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="8">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="8">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="8">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="8">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="8">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="8">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="8">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="8">
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="8">
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="8">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="8">
         <f t="shared" si="44"/>
         <v>13</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="8">
         <f t="shared" si="45"/>
         <v>14</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="8">
         <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="8">
         <f t="shared" si="47"/>
         <v>16</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="8">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="8">
         <f t="shared" si="49"/>
         <v>18</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="8">
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="U23" s="12">
+      <c r="U23" s="8">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="V23" s="12">
+      <c r="V23" s="8">
         <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="W23" s="12">
+      <c r="W23" s="8">
         <f t="shared" si="53"/>
         <v>22</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23" s="8">
         <f t="shared" si="54"/>
         <v>23</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="Y23" s="8">
         <f t="shared" si="55"/>
         <v>24</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="Z23" s="8">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
-      <c r="AA23" s="12">
+      <c r="AA23" s="8">
         <f t="shared" si="57"/>
         <v>26</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AB23" s="8">
         <f t="shared" si="58"/>
         <v>27</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AC23" s="8">
         <f t="shared" si="59"/>
         <v>28</v>
       </c>
-      <c r="AD23" s="12">
+      <c r="AD23" s="8">
         <f t="shared" si="60"/>
         <v>29</v>
       </c>
-      <c r="AE23" s="12">
+      <c r="AE23" s="8">
         <f t="shared" si="61"/>
         <v>30</v>
       </c>
-      <c r="AF23" s="13">
+      <c r="AF23" s="9">
         <f t="shared" si="62"/>
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="16">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="12">
         <f>+B23</f>
         <v>1</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="8">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="8">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="8">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="8">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="8">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="8">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="8">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="8">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="8">
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="8">
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="8">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="8">
         <f t="shared" si="44"/>
         <v>13</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="8">
         <f t="shared" si="45"/>
         <v>14</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="8">
         <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="8">
         <f t="shared" si="47"/>
         <v>16</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="8">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="8">
         <f t="shared" si="49"/>
         <v>18</v>
       </c>
-      <c r="T24" s="12">
+      <c r="T24" s="8">
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="U24" s="12">
+      <c r="U24" s="8">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="V24" s="12">
+      <c r="V24" s="8">
         <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="W24" s="12">
+      <c r="W24" s="8">
         <f t="shared" si="53"/>
         <v>22</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X24" s="8">
         <f t="shared" si="54"/>
         <v>23</v>
       </c>
-      <c r="Y24" s="12">
+      <c r="Y24" s="8">
         <f t="shared" si="55"/>
         <v>24</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="Z24" s="8">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA24" s="8">
         <f t="shared" si="57"/>
         <v>26</v>
       </c>
-      <c r="AB24" s="12">
+      <c r="AB24" s="8">
         <f t="shared" si="58"/>
         <v>27</v>
       </c>
-      <c r="AC24" s="12">
+      <c r="AC24" s="8">
         <f t="shared" si="59"/>
         <v>28</v>
       </c>
-      <c r="AD24" s="12">
+      <c r="AD24" s="8">
         <f t="shared" si="60"/>
         <v>29</v>
       </c>
-      <c r="AE24" s="12">
+      <c r="AE24" s="8">
         <f t="shared" si="61"/>
         <v>30</v>
       </c>
-      <c r="AF24" s="13">
+      <c r="AF24" s="9">
         <f t="shared" si="62"/>
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="16">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="12">
         <f t="shared" ref="B25:B26" si="64">+B24</f>
         <v>1</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="8">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="8">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="8">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="8">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="8">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="8">
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="8">
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="8">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="8">
         <f t="shared" si="44"/>
         <v>13</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="8">
         <f t="shared" si="45"/>
         <v>14</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="8">
         <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="8">
         <f t="shared" si="47"/>
         <v>16</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="8">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="8">
         <f t="shared" si="49"/>
         <v>18</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="8">
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="U25" s="12">
+      <c r="U25" s="8">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="V25" s="12">
+      <c r="V25" s="8">
         <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="W25" s="12">
+      <c r="W25" s="8">
         <f t="shared" si="53"/>
         <v>22</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25" s="8">
         <f t="shared" si="54"/>
         <v>23</v>
       </c>
-      <c r="Y25" s="12">
+      <c r="Y25" s="8">
         <f t="shared" si="55"/>
         <v>24</v>
       </c>
-      <c r="Z25" s="12">
+      <c r="Z25" s="8">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
-      <c r="AA25" s="12">
+      <c r="AA25" s="8">
         <f t="shared" si="57"/>
         <v>26</v>
       </c>
-      <c r="AB25" s="12">
+      <c r="AB25" s="8">
         <f t="shared" si="58"/>
         <v>27</v>
       </c>
-      <c r="AC25" s="12">
+      <c r="AC25" s="8">
         <f t="shared" si="59"/>
         <v>28</v>
       </c>
-      <c r="AD25" s="12">
+      <c r="AD25" s="8">
         <f t="shared" si="60"/>
         <v>29</v>
       </c>
-      <c r="AE25" s="12">
+      <c r="AE25" s="8">
         <f t="shared" si="61"/>
         <v>30</v>
       </c>
-      <c r="AF25" s="13">
+      <c r="AF25" s="9">
         <f t="shared" si="62"/>
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="17">
+      <c r="B26" s="13">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="10">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="10">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="10">
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="10">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="10">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="10">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="10">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="10">
         <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="10">
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="10">
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="10">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="10">
         <f t="shared" si="44"/>
         <v>13</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="10">
         <f t="shared" si="45"/>
         <v>14</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="10">
         <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="10">
         <f t="shared" si="47"/>
         <v>16</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="10">
         <f t="shared" si="48"/>
         <v>17</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="10">
         <f t="shared" si="49"/>
         <v>18</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="10">
         <f t="shared" si="50"/>
         <v>19</v>
       </c>
-      <c r="U26" s="14">
+      <c r="U26" s="10">
         <f t="shared" si="51"/>
         <v>20</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="10">
         <f t="shared" si="52"/>
         <v>21</v>
       </c>
-      <c r="W26" s="14">
+      <c r="W26" s="10">
         <f t="shared" si="53"/>
         <v>22</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X26" s="10">
         <f t="shared" si="54"/>
         <v>23</v>
       </c>
-      <c r="Y26" s="14">
+      <c r="Y26" s="10">
         <f t="shared" si="55"/>
         <v>24</v>
       </c>
-      <c r="Z26" s="14">
+      <c r="Z26" s="10">
         <f t="shared" si="56"/>
         <v>25</v>
       </c>
-      <c r="AA26" s="14">
+      <c r="AA26" s="10">
         <f t="shared" si="57"/>
         <v>26</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AB26" s="10">
         <f t="shared" si="58"/>
         <v>27</v>
       </c>
-      <c r="AC26" s="14">
+      <c r="AC26" s="10">
         <f t="shared" si="59"/>
         <v>28</v>
       </c>
-      <c r="AD26" s="14">
+      <c r="AD26" s="10">
         <f t="shared" si="60"/>
         <v>29</v>
       </c>
-      <c r="AE26" s="14">
+      <c r="AE26" s="10">
         <f t="shared" si="61"/>
         <v>30</v>
       </c>
-      <c r="AF26" s="15">
+      <c r="AF26" s="11">
         <f t="shared" si="62"/>
         <v>31</v>
       </c>

--- a/6. Formatos/Formato - Hoja de Retardos.xlsx
+++ b/6. Formatos/Formato - Hoja de Retardos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\6. Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7A3F93-FE68-431B-BD27-AB81CE0A6537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5781999-DDD6-438F-B694-EF48D1F0CC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E2DCE6F9-4E67-43CE-99BD-155BF2AA81C3}"/>
   </bookViews>
@@ -56,10 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
-  <si>
-    <t>Elvis Molina</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Ines Torres</t>
   </si>
@@ -73,25 +70,19 @@
     <t>Olga Arango</t>
   </si>
   <si>
-    <t>Paola Pinzon</t>
-  </si>
-  <si>
     <t>Retardos - Marcar con ❎ o resaltar con color si hubo tardanza</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Edy Uribe</t>
   </si>
   <si>
     <t>Johana Matute</t>
   </si>
   <si>
-    <t>Abril</t>
+    <t>Sandra/Carlos</t>
   </si>
   <si>
-    <t>Sandra/Carlos</t>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Julio</t>
   </si>
 </sst>
 </file>
@@ -776,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B7D470-C1A4-4E8B-A99C-49F2F0D1D64D}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -790,10 +781,10 @@
     <row r="1" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -924,9 +915,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="16"/>
       <c r="B4" s="4">
         <f>+B3</f>
         <v>1</v>
@@ -1054,7 +1043,7 @@
     </row>
     <row r="5" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="12">
         <f t="shared" ref="B5:B10" si="30">+B4</f>
@@ -1183,7 +1172,7 @@
     </row>
     <row r="6" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="12">
         <f t="shared" si="30"/>
@@ -1312,7 +1301,7 @@
     </row>
     <row r="7" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="12">
         <f t="shared" si="30"/>
@@ -1441,7 +1430,7 @@
     </row>
     <row r="8" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="12">
         <f t="shared" si="30"/>
@@ -1569,9 +1558,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="12">
         <f t="shared" si="30"/>
         <v>1</v>
@@ -1698,9 +1685,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="12">
         <f t="shared" si="30"/>
         <v>1</v>
@@ -1828,7 +1813,7 @@
     </row>
     <row r="11" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="12">
         <f>+B10</f>
@@ -1957,7 +1942,7 @@
     </row>
     <row r="12" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="12">
         <f t="shared" ref="B12" si="31">+B11</f>
@@ -2214,10 +2199,10 @@
     <row r="14" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -2348,9 +2333,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="A17" s="16"/>
       <c r="B17" s="4">
         <f>+B16</f>
         <v>1</v>
@@ -2478,7 +2461,7 @@
     </row>
     <row r="18" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="12">
         <f t="shared" ref="B18:B23" si="63">+B17</f>
@@ -2607,7 +2590,7 @@
     </row>
     <row r="19" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="12">
         <f t="shared" si="63"/>
@@ -2736,7 +2719,7 @@
     </row>
     <row r="20" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="12">
         <f t="shared" si="63"/>
@@ -2865,7 +2848,7 @@
     </row>
     <row r="21" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="12">
         <f t="shared" si="63"/>
@@ -2993,9 +2976,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A22" s="3"/>
       <c r="B22" s="12">
         <f t="shared" si="63"/>
         <v>1</v>
@@ -3122,9 +3103,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="12">
         <f t="shared" si="63"/>
         <v>1</v>
@@ -3252,7 +3231,7 @@
     </row>
     <row r="24" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B24" s="12">
         <f>+B23</f>
@@ -3381,7 +3360,7 @@
     </row>
     <row r="25" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B25" s="12">
         <f t="shared" ref="B25:B26" si="64">+B24</f>
